--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3892388.312061814</v>
+        <v>3888251.154811664</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>321.7513593345863</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,10 +676,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>102.0608945745469</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>69.42366099135501</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>51.92096917925206</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>105.9699356084028</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>300.8776066414595</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>168.9725232334648</v>
       </c>
       <c r="V7" t="n">
-        <v>34.1814025942412</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.32264210664765</v>
+        <v>63.72918415875047</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>143.5331278943279</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>30.09519610355564</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>58.24570521548602</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>120.1447214650593</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>141.4513012076585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>95.77623638693832</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>281.0891363876762</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>140.7215037338438</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422912</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.06830131405788</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>164.1303830823241</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>201.5291659007891</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>13.72582864853726</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>186.42397249849</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>41.55695577161242</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3963959210122</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960838</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>125.5687591261415</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>149.3431529631722</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1184.34337792405</v>
+        <v>394.8580066177523</v>
       </c>
       <c r="C2" t="n">
-        <v>1184.34337792405</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="D2" t="n">
-        <v>826.0776793172993</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E2" t="n">
-        <v>440.289426719055</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
         <v>795.755353087291</v>
@@ -4342,7 +4342,7 @@
         <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
         <v>2055.22848474084</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2334.548308225063</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>2334.548308225063</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X2" t="n">
-        <v>1961.082549963983</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="Y2" t="n">
-        <v>1570.943217988171</v>
+        <v>781.4578466818741</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4409,28 +4409,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310612</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625327</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217527</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300791</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800311</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4488,52 +4488,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1044.130574852398</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>789.4460866465112</v>
+        <v>1584.000696661112</v>
       </c>
       <c r="W4" t="n">
-        <v>500.0289166095505</v>
+        <v>1294.583526624151</v>
       </c>
       <c r="X4" t="n">
-        <v>272.0393657115332</v>
+        <v>1066.593975726134</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.24678656800311</v>
+        <v>845.8013965826035</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1163.744434193592</v>
+        <v>1505.042027525393</v>
       </c>
       <c r="C5" t="n">
-        <v>1163.744434193592</v>
+        <v>1136.079510584981</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>777.8138119782304</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>62.91113280331021</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
         <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532449</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453058</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.250531453058</v>
+        <v>1878.507785786472</v>
       </c>
       <c r="X5" t="n">
-        <v>1270.784773191978</v>
+        <v>1505.042027525393</v>
       </c>
       <c r="Y5" t="n">
-        <v>1270.784773191978</v>
+        <v>1505.042027525393</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180659</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495376</v>
+        <v>593.0223835625334</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508757</v>
+        <v>956.2844025217536</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>388.1694341876314</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>219.2332512597245</v>
+        <v>201.3634259803389</v>
       </c>
       <c r="D7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485136</v>
+        <v>1363.183397192641</v>
       </c>
       <c r="V7" t="n">
-        <v>790.6104781614013</v>
+        <v>1108.498908986754</v>
       </c>
       <c r="W7" t="n">
-        <v>790.6104781614013</v>
+        <v>819.0817389497932</v>
       </c>
       <c r="X7" t="n">
-        <v>790.6104781614013</v>
+        <v>591.0921880517759</v>
       </c>
       <c r="Y7" t="n">
-        <v>569.8178990178711</v>
+        <v>370.2996089082458</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.246750862032</v>
+        <v>1571.558046306621</v>
       </c>
       <c r="C8" t="n">
-        <v>880.2842339216199</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D8" t="n">
-        <v>522.0185353148695</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2302827166253</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2022.53079966241</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>2022.53079966241</v>
       </c>
       <c r="X8" t="n">
-        <v>1270.784773191979</v>
+        <v>2022.53079966241</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.246750862032</v>
+        <v>1958.157886370743</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180659</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495376</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508757</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1715.293511287796</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2047.363946463958</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>937.5665200750353</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C10" t="n">
-        <v>768.6303371471284</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.23396574994</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.549477544053</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="W10" t="n">
-        <v>1082.549477544053</v>
+        <v>1316.629762054147</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.549477544053</v>
+        <v>1088.64021115613</v>
       </c>
       <c r="Y10" t="n">
-        <v>1082.549477544053</v>
+        <v>867.8476320126</v>
       </c>
     </row>
     <row r="11">
@@ -5023,31 +5023,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>376.4492432300683</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>376.4492432300683</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>376.4492432300683</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2325.6047790701</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5266,31 +5266,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>417.9651836029414</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>913.2907898187001</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>842.6091804069454</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8178837532264</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.258927726996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.4663485834661</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129205</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M18" t="n">
-        <v>2876.560776129205</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N18" t="n">
-        <v>3482.038612289356</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>734.6461798836013</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>734.6461798836013</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>586.7330863012082</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>439.8431388032978</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>272.6470395181778</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5718,7 +5718,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5776,13 +5776,13 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.8386896933887</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1760.578363664494</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1505.893875458607</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1216.476705421646</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>988.4871545236284</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>988.4871545236284</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,25 +5971,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.53722908186</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153953</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741617</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159224</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>4481.644515586508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>4262.043050609449</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>3972.967823953647</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>3972.967823953647</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>3972.967823953647</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>3744.978273055629</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912099</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M27" t="n">
-        <v>738.7889117913853</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1366.386875345992</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1918.296605585279</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6381,55 +6381,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2281.17481784054</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>2061.573352863481</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1772.498126207679</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949674</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1230.136551607618</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1002.147000709601</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>781.3544215660705</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6718,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>422.7903292978459</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>274.8772357154528</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>274.8772357154528</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>107.6811364303327</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2858.491853286439</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>2858.491853286439</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>2708.375213874103</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E37" t="n">
-        <v>2708.375213874103</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4033.024106401073</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3778.339618195187</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3488.922448158226</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3260.932897260208</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3040.140318116678</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7198,25 +7198,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>409.1360811687895</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>784.5811134804959</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C40" t="n">
-        <v>615.644930552589</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D40" t="n">
-        <v>465.5282911402533</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578601</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>135.7933860496006</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y40" t="n">
-        <v>784.5811134804959</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>996.5276398439756</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C43" t="n">
-        <v>827.5914569160688</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D43" t="n">
-        <v>677.474817503733</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>529.5617239213399</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X43" t="n">
-        <v>1398.968683817745</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y43" t="n">
-        <v>1178.176104674215</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="44">
@@ -7727,28 +7727,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3260.450525729772</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>3091.514342801865</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>2941.39770338953</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>2793.484609807137</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4472.935778991226</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4253.334314014167</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>4253.334314014167</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3998.64982580828</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3709.23265577132</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>3481.243104873302</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>3260.450525729772</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>70.03064962107976</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>240.4465442417442</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154992</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>84.94186588374754</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.9556134883060281</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>154.0169020165197</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>107.2784330767828</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>60.8815645365853</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>84.25835418137865</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>44.51847645928557</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>5.095338001567939</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>40.30478226780076</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>39.70888054695297</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.7636788678794</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.89590291932052</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>84.99383243580195</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>126.5688841976866</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>99.76050189075411</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>39.7088805469531</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>88.18825743108263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.5874149221285734</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>19.85228889678972</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>31.68313303847242</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631638.0544098781</v>
+        <v>631638.054409878</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>631638.0544098781</v>
+        <v>631638.054409878</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>631638.054409878</v>
+        <v>631638.0544098781</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>631638.054409878</v>
+        <v>631638.0544098781</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>631638.0544098781</v>
+        <v>631638.054409878</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.725617677</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.934697756</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.934697756</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.934697756</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="L2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="M2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977558</v>
-      </c>
       <c r="P2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.539624622135307e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707422</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707294</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="N4" t="n">
         <v>6897.424496707361</v>
@@ -26459,7 +26459,7 @@
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-539083.5572297133</v>
+        <v>-539083.5572297124</v>
       </c>
       <c r="C6" t="n">
-        <v>575668.2263462065</v>
+        <v>575668.2263462066</v>
       </c>
       <c r="D6" t="n">
-        <v>575668.2263462065</v>
+        <v>575668.2263462071</v>
       </c>
       <c r="E6" t="n">
-        <v>171462.5387525954</v>
+        <v>171115.1594982392</v>
       </c>
       <c r="F6" t="n">
-        <v>678947.9803771417</v>
+        <v>678600.6011227848</v>
       </c>
       <c r="G6" t="n">
-        <v>678947.9803771413</v>
+        <v>678600.6011227841</v>
       </c>
       <c r="H6" t="n">
-        <v>678947.9803771416</v>
+        <v>678600.6011227844</v>
       </c>
       <c r="I6" t="n">
-        <v>678947.9803771412</v>
+        <v>678600.6011227848</v>
       </c>
       <c r="J6" t="n">
-        <v>511342.802567159</v>
+        <v>510995.4233128017</v>
       </c>
       <c r="K6" t="n">
-        <v>678947.9803771412</v>
+        <v>678600.6011227842</v>
       </c>
       <c r="L6" t="n">
-        <v>678947.9803771415</v>
+        <v>678600.6011227842</v>
       </c>
       <c r="M6" t="n">
-        <v>546340.6866482145</v>
+        <v>545993.3073938577</v>
       </c>
       <c r="N6" t="n">
-        <v>678947.9803771413</v>
+        <v>678600.6011227842</v>
       </c>
       <c r="O6" t="n">
-        <v>678947.9803771415</v>
+        <v>678600.6011227845</v>
       </c>
       <c r="P6" t="n">
-        <v>678947.9803771415</v>
+        <v>678600.6011227844</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,25 +26807,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>43.5215324364213</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>225.691363895588</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>216.8034931298456</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>200.2166741445759</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>276.7639060550778</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>81.05276343080226</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,10 +27788,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27824,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>117.2546308877359</v>
       </c>
       <c r="V7" t="n">
-        <v>217.9562407295868</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>364.9152965494059</v>
+        <v>322.5087544973031</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.29885228760944</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>71.46237631601797</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,16 +28070,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-1.463149601477198e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31214,16 +31214,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,31 +31436,31 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,31 +31673,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>254.8897444730604</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>465.2641870096817</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>397.6543049213407</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,25 +32311,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>742.9354859824763</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32338,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663297</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>349.3304751113899</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>349.3304751113899</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>665.2579603615019</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>349.7190218511037</v>
       </c>
       <c r="P36" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>456.3459017226597</v>
+        <v>463.4789474089061</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34447,31 +34447,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>246.2467565146294</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>472.0729312464055</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376328</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091737</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434847</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>405.4553316172027</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>490.1260733652765</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434847</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>476.1389654766213</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>336.3802954844292</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634693</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434847</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961229</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>403.6964311400519</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>116.3353646931863</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>327.4227480353227</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>263.6798975070105</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>611.593773899143</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35986,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>211.489036137031</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>211.4890361370309</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88662398579324</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>522.6617159170574</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>207.1227774066593</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>318.5044627483007</v>
+        <v>325.6375084345471</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38095,31 +38095,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>340.7312191630721</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3888251.154811664</v>
+        <v>3890011.685114449</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7351937.087278122</v>
+        <v>7351937.087278121</v>
       </c>
     </row>
     <row r="11">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>51.92096917925206</v>
+        <v>51.92096917925229</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>300.8776066414595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>325.8232823109074</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>168.9725232334648</v>
+        <v>168.9725232334645</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>31.29664554932725</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>63.72918415875047</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>30.09519610355564</v>
+        <v>30.09519610355542</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>120.1447214650593</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>246.4755938422912</v>
+        <v>114.9322208041654</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>164.1303830823241</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>123.9815576456783</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>41.55695577161242</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422912</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>93.4044447618827</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4333,13 +4333,13 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,10 +4412,10 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M3" t="n">
         <v>1218.104987164206</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4488,16 +4488,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,19 +4509,19 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
         <v>1584.000696661112</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.042027525393</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.079510584981</v>
+        <v>1136.079510584979</v>
       </c>
       <c r="D5" t="n">
-        <v>777.8138119782304</v>
+        <v>777.8138119782286</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>392.0255593799844</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331021</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056586</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786472</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525393</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.042027525393</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625334</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217536</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118699</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
         <v>1676.586023648284</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4704,37 +4704,37 @@
         <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>201.3634259803389</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312205</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,7 +4746,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
         <v>1533.86271359008</v>
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1571.558046306621</v>
+        <v>1121.092420148947</v>
       </c>
       <c r="C8" t="n">
-        <v>1202.59552936621</v>
+        <v>752.1299032085356</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>393.864204601785</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>393.864204601785</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>386.9187038525816</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230818</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.593687005981</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.593687005981</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.53079966241</v>
+        <v>1897.831592188881</v>
       </c>
       <c r="W8" t="n">
-        <v>2022.53079966241</v>
+        <v>1897.831592188881</v>
       </c>
       <c r="X8" t="n">
-        <v>2022.53079966241</v>
+        <v>1897.831592188881</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.157886370743</v>
+        <v>1507.692260213069</v>
       </c>
     </row>
     <row r="9">
@@ -4886,10 +4886,10 @@
         <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380219</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694938</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
@@ -4962,7 +4962,7 @@
         <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4971,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,7 +4983,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
         <v>1606.046932091108</v>
@@ -5023,19 +5023,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192548</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2325.6047790701</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2106.003314093041</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,7 +5354,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5366,7 +5366,7 @@
         <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069454</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N15" t="n">
         <v>1470.207143961552</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5664,7 +5664,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,19 +5828,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,19 +6065,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>454.6048385560544</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
         <v>1577.52840832642</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,52 +6214,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,22 +6299,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6048385560544</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L27" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
         <v>1577.52840832642</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2281.17481784054</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2061.573352863481</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1772.498126207679</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1517.813638001792</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1228.396467964831</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1000.406917066814</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>779.6143379232838</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,7 +6475,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -7074,16 +7074,16 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797189</v>
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7207,7 +7207,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327652</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048583</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>277.5052172074025</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7933860496006</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7365,19 +7365,19 @@
         <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="41">
@@ -7645,25 +7645,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,19 +7724,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452614</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N45" t="n">
         <v>1577.52840832642</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
   </sheetData>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>240.4465442417442</v>
+        <v>240.4465442417433</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9556134883060281</v>
+        <v>0.9556134883063123</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878341</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>60.8815645365853</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>39.70888054695297</v>
+        <v>171.2522535850787</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>16.89590291932052</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.63391537253403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>39.7088805469531</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>39.70888054695297</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.11969353038614</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631638.054409878</v>
+        <v>631638.0544098781</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>631638.0544098781</v>
+        <v>631638.054409878</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>631638.0544098781</v>
+        <v>631638.054409878</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>631638.054409878</v>
+        <v>631638.0544098781</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>800515.725617677</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977561</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="G2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="I2" t="n">
-        <v>786967.9346977562</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="K2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="O2" t="n">
-        <v>786967.934697756</v>
-      </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26368,34 +26368,34 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>3.539624622135307e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245455</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289266</v>
@@ -26420,13 +26420,13 @@
         <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
         <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707397</v>
       </c>
       <c r="F4" t="n">
         <v>6897.424496707422</v>
@@ -26435,13 +26435,13 @@
         <v>6897.424496707361</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707294</v>
+        <v>6897.424496707414</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984473</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-539083.5572297124</v>
+        <v>-539083.5572297126</v>
       </c>
       <c r="C6" t="n">
-        <v>575668.2263462066</v>
+        <v>575668.2263462067</v>
       </c>
       <c r="D6" t="n">
-        <v>575668.2263462071</v>
+        <v>575668.2263462069</v>
       </c>
       <c r="E6" t="n">
-        <v>171115.1594982392</v>
+        <v>171427.8008271603</v>
       </c>
       <c r="F6" t="n">
-        <v>678600.6011227848</v>
+        <v>678913.2424517061</v>
       </c>
       <c r="G6" t="n">
-        <v>678600.6011227841</v>
+        <v>678913.2424517057</v>
       </c>
       <c r="H6" t="n">
-        <v>678600.6011227844</v>
+        <v>678913.2424517056</v>
       </c>
       <c r="I6" t="n">
-        <v>678600.6011227848</v>
+        <v>678913.2424517059</v>
       </c>
       <c r="J6" t="n">
-        <v>510995.4233128017</v>
+        <v>511308.0646417232</v>
       </c>
       <c r="K6" t="n">
-        <v>678600.6011227842</v>
+        <v>678913.2424517057</v>
       </c>
       <c r="L6" t="n">
-        <v>678600.6011227842</v>
+        <v>678913.2424517053</v>
       </c>
       <c r="M6" t="n">
-        <v>545993.3073938577</v>
+        <v>546305.9487227791</v>
       </c>
       <c r="N6" t="n">
-        <v>678600.6011227842</v>
+        <v>678913.242451706</v>
       </c>
       <c r="O6" t="n">
-        <v>678600.6011227845</v>
+        <v>678913.2424517056</v>
       </c>
       <c r="P6" t="n">
-        <v>678600.6011227844</v>
+        <v>678913.2424517055</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,7 +26792,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000391</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,37 +26959,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241344</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>433.9106082241343</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27014,7 +27014,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>200.2166741445759</v>
+        <v>200.2166741445757</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>81.05276343080226</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>81.05276343080402</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>117.2546308877359</v>
+        <v>117.2546308877361</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>380.2510572236267</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>322.5087544973031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>71.46237631601797</v>
+        <v>71.46237631601821</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28329,16 +28329,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>1.364242052659392e-12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-1.463149601477198e-12</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32086,28 +32086,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>397.6543049213407</v>
+        <v>397.6543049213403</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32560,31 +32560,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860823</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>349.3304751113899</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>349.3304751113899</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>246.2467565146294</v>
+        <v>246.2467565146293</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>490.1260733652765</v>
+        <v>490.1260733652756</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35029,7 +35029,7 @@
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>336.3802954844292</v>
+        <v>336.3802954844294</v>
       </c>
       <c r="P6" t="n">
         <v>568.1422977634695</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.914843031319</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>263.6798975070105</v>
+        <v>263.67989750701</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>439.190340064064</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>211.489036137031</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>211.4890361370309</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,7 +36925,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>108.4053175402704</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
